--- a/PROYECTO MR/DA_MT.006 Matriz de roles y menú vista funcionario V3.xlsx
+++ b/PROYECTO MR/DA_MT.006 Matriz de roles y menú vista funcionario V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="13_ncr:1_{056F657B-F597-4B1E-87DD-6DDDC0044201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191CD9CC-B0F0-458F-AAA0-5D1C30633F0A}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="13_ncr:1_{056F657B-F597-4B1E-87DD-6DDDC0044201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5763E9-8EF9-4236-BC85-1B469AFB52C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{9F280097-B24D-4389-9DB2-17E90E2AE2A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{9F280097-B24D-4389-9DB2-17E90E2AE2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción de Roles V2.0" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descripción de Roles V2.0'!$A$3:$H$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Menú y Submenú'!$A$4:$AI$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Menú y Submenú'!$A$4:$T$4</definedName>
     <definedName name="_Hlk132631931" localSheetId="1">'Menú y Submenú'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -46,8 +46,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={370ABFEC-13FD-4137-94C7-24A3DE62AC6B}</author>
+    <author>tc={41995843-2909-422E-BA84-7D93D6D7ACD8}</author>
+    <author>tc={85ACCE58-A01C-4040-9513-7FF0B61A45D1}</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{370ABFEC-13FD-4137-94C7-24A3DE62AC6B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    nuevo</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="1" shapeId="0" xr:uid="{41995843-2909-422E-BA84-7D93D6D7ACD8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    nuevo</t>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="2" shapeId="0" xr:uid="{85ACCE58-A01C-4040-9513-7FF0B61A45D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    nuevo</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="422">
   <si>
     <t>ROLES</t>
   </si>
@@ -188,19 +224,17 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>NUEVO</t>
+      <t xml:space="preserve">NUEVO
+</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-VUCE.ENTIDAD.MESA_PARTES</t>
+      <t>VUCE.ENTIDAD.MESA_PARTES</t>
     </r>
   </si>
   <si>
@@ -1948,7 +1982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,6 +2304,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="32">
     <fill>
@@ -4474,7 +4522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5250,9 +5298,6 @@
     <xf numFmtId="0" fontId="43" fillId="27" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="27" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5443,6 +5488,18 @@
     <xf numFmtId="0" fontId="36" fillId="25" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5467,6 +5524,396 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5482,57 +5929,15 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5557,355 +5962,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="127" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="128" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6528,6 +6585,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Guido Ramos Perez" id="{59EDDAEE-70F7-4459-BAB9-A11358CE055D}" userId="S::gramos@mincetur.gob.pe::7ae19ad1-bcd4-4ec9-9f2c-fe9b2556fc66" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6823,13 +6886,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C11" dT="2025-03-28T21:07:04.08" personId="{59EDDAEE-70F7-4459-BAB9-A11358CE055D}" id="{370ABFEC-13FD-4137-94C7-24A3DE62AC6B}">
+    <text>nuevo</text>
+  </threadedComment>
+  <threadedComment ref="C14" dT="2025-03-28T21:08:08.74" personId="{59EDDAEE-70F7-4459-BAB9-A11358CE055D}" id="{41995843-2909-422E-BA84-7D93D6D7ACD8}">
+    <text>nuevo</text>
+  </threadedComment>
+  <threadedComment ref="C21" dT="2025-03-28T21:09:47.07" personId="{59EDDAEE-70F7-4459-BAB9-A11358CE055D}" id="{85ACCE58-A01C-4040-9513-7FF0B61A45D1}">
+    <text>nuevo</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D7133-0819-4353-8382-8F1C66C0C56E}">
   <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -6855,59 +6932,59 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="14.45">
       <c r="A2"/>
-      <c r="B2" s="484" t="s">
+      <c r="B2" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="485"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="488"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1">
       <c r="A3" s="396"/>
-      <c r="B3" s="426" t="s">
+      <c r="B3" s="425" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="427" t="s">
+      <c r="C3" s="426" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="428" t="s">
+      <c r="D3" s="427" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="427" t="s">
+      <c r="E3" s="426" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="427" t="s">
+      <c r="F3" s="426" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="429" t="s">
+      <c r="G3" s="428" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="436" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="430"/>
-      <c r="B4" s="486" t="s">
+    <row r="4" spans="1:8" s="435" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="429"/>
+      <c r="B4" s="489" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="431" t="s">
+      <c r="C4" s="430" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="432" t="s">
+      <c r="D4" s="431" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="432" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="434" t="s">
+      <c r="F4" s="433" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="435"/>
+      <c r="G4" s="434"/>
     </row>
     <row r="5" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A5" s="397"/>
-      <c r="B5" s="487"/>
-      <c r="C5" s="422" t="s">
+      <c r="B5" s="490"/>
+      <c r="C5" s="421" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="398" t="s">
@@ -6919,12 +6996,12 @@
       <c r="F5" s="399" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="450"/>
+      <c r="G5" s="449"/>
     </row>
     <row r="6" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A6" s="397"/>
-      <c r="B6" s="487"/>
-      <c r="C6" s="423" t="s">
+      <c r="B6" s="490"/>
+      <c r="C6" s="422" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="395" t="s">
@@ -6936,16 +7013,16 @@
       <c r="F6" s="400" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="424"/>
+      <c r="G6" s="423"/>
       <c r="H6" s="401"/>
     </row>
-    <row r="7" spans="1:8" ht="73.5" customHeight="1">
+    <row r="7" spans="1:8" ht="60" customHeight="1">
       <c r="A7" s="397"/>
-      <c r="B7" s="487"/>
-      <c r="C7" s="423" t="s">
+      <c r="B7" s="490"/>
+      <c r="C7" s="422" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="449" t="s">
+      <c r="D7" s="448" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="408" t="s">
@@ -6954,33 +7031,33 @@
       <c r="F7" s="400" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="424" t="s">
+      <c r="G7" s="423" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="97.5" customHeight="1">
+    <row r="8" spans="1:8" ht="58.5" customHeight="1">
       <c r="A8" s="397"/>
-      <c r="B8" s="487"/>
-      <c r="C8" s="423" t="s">
+      <c r="B8" s="490"/>
+      <c r="C8" s="422" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="449" t="s">
+      <c r="D8" s="448" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="477" t="s">
+      <c r="E8" s="476" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="400" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="424" t="s">
+      <c r="G8" s="423" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.450000000000003" customHeight="1">
       <c r="A9" s="397"/>
-      <c r="B9" s="487"/>
-      <c r="C9" s="423" t="s">
+      <c r="B9" s="490"/>
+      <c r="C9" s="422" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="395" t="s">
@@ -6992,12 +7069,12 @@
       <c r="F9" s="400" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="424"/>
+      <c r="G9" s="423"/>
     </row>
     <row r="10" spans="1:8" ht="27.75" customHeight="1">
       <c r="A10" s="397"/>
-      <c r="B10" s="487"/>
-      <c r="C10" s="423" t="s">
+      <c r="B10" s="490"/>
+      <c r="C10" s="422" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="395" t="s">
@@ -7009,15 +7086,15 @@
       <c r="F10" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="424"/>
+      <c r="G10" s="423"/>
     </row>
     <row r="11" spans="1:8" ht="45.6" customHeight="1">
       <c r="A11" s="397"/>
-      <c r="B11" s="487"/>
-      <c r="C11" s="423" t="s">
+      <c r="B11" s="490"/>
+      <c r="C11" s="422" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="449" t="s">
+      <c r="D11" s="485" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="408" t="s">
@@ -7026,12 +7103,12 @@
       <c r="F11" s="400" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="424"/>
+      <c r="G11" s="423"/>
     </row>
     <row r="12" spans="1:8" ht="25.9" customHeight="1">
       <c r="A12" s="397"/>
-      <c r="B12" s="487"/>
-      <c r="C12" s="423" t="s">
+      <c r="B12" s="490"/>
+      <c r="C12" s="422" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="402" t="s">
@@ -7043,51 +7120,53 @@
       <c r="F12" s="411" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="425"/>
+      <c r="G12" s="424"/>
     </row>
     <row r="13" spans="1:8" ht="25.9" customHeight="1">
       <c r="A13" s="397"/>
-      <c r="B13" s="487"/>
-      <c r="C13" s="451" t="s">
+      <c r="B13" s="490"/>
+      <c r="C13" s="450" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="395" t="s">
+      <c r="D13" s="476" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="480"/>
-      <c r="F13" s="481" t="s">
+      <c r="E13" s="479"/>
+      <c r="F13" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="482" t="s">
+      <c r="G13" s="481" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" customHeight="1">
       <c r="A14" s="397"/>
-      <c r="B14" s="487"/>
-      <c r="C14" s="451"/>
-      <c r="D14" s="452" t="s">
+      <c r="B14" s="490"/>
+      <c r="C14" s="450"/>
+      <c r="D14" s="451" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="452" t="s">
+      <c r="E14" s="451" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="453"/>
-      <c r="G14" s="454"/>
+      <c r="F14" s="452"/>
+      <c r="G14" s="453"/>
     </row>
     <row r="15" spans="1:8" ht="25.15" customHeight="1">
-      <c r="B15" s="487"/>
-      <c r="C15" s="437" t="s">
+      <c r="B15" s="490"/>
+      <c r="C15" s="436" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="438"/>
-      <c r="E15" s="437" t="s">
+      <c r="D15" s="437" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="436" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="437" t="s">
+      <c r="F15" s="436" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="439" t="s">
+      <c r="G15" s="438" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10755,7 +10834,7 @@
       <c r="G747" s="412"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H14" xr:uid="{C85C59A4-03AC-43A9-95BC-573FB45E1CBB}"/>
+  <autoFilter ref="A3:H15" xr:uid="{C85C59A4-03AC-43A9-95BC-573FB45E1CBB}"/>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B15"/>
@@ -10766,12 +10845,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DDE9C-F872-42FF-95E4-A547251FBFD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DDE9C-F872-42FF-95E4-A547251FBFD3}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+    <sheetView zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -10780,14 +10859,16 @@
   <cols>
     <col min="1" max="1" width="4.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="384" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="384" customWidth="1"/>
+    <col min="3" max="3" width="24" style="384" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="384" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="462" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="462" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="461" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="461" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="384" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="384" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="474" customWidth="1"/>
-    <col min="10" max="17" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="473" customWidth="1"/>
+    <col min="10" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" customWidth="1"/>
   </cols>
@@ -10797,22 +10878,22 @@
       <c r="B1" s="383"/>
       <c r="C1" s="383"/>
       <c r="D1" s="383"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
       <c r="G1" s="383"/>
       <c r="H1" s="383"/>
-      <c r="I1" s="471"/>
+      <c r="I1" s="470"/>
     </row>
     <row r="2" spans="1:20" s="382" customFormat="1" ht="10.15" customHeight="1">
       <c r="A2" s="381"/>
       <c r="B2" s="386"/>
       <c r="C2" s="386"/>
       <c r="D2" s="386"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
       <c r="G2" s="386"/>
       <c r="H2" s="386"/>
-      <c r="I2" s="472"/>
+      <c r="I2" s="471"/>
     </row>
     <row r="3" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="20"/>
@@ -10821,21 +10902,21 @@
       </c>
       <c r="C3" s="389"/>
       <c r="D3" s="389"/>
-      <c r="E3" s="457"/>
-      <c r="F3" s="457"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="456"/>
       <c r="G3" s="389"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="490" t="s">
+      <c r="H3" s="447"/>
+      <c r="I3" s="472"/>
+      <c r="J3" s="493" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="491"/>
-      <c r="L3" s="491"/>
-      <c r="M3" s="491"/>
-      <c r="N3" s="491"/>
-      <c r="O3" s="491"/>
-      <c r="P3" s="491"/>
-      <c r="Q3" s="491"/>
+      <c r="K3" s="494"/>
+      <c r="L3" s="494"/>
+      <c r="M3" s="494"/>
+      <c r="N3" s="494"/>
+      <c r="O3" s="494"/>
+      <c r="P3" s="494"/>
+      <c r="Q3" s="494"/>
     </row>
     <row r="4" spans="1:20" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A4" s="392"/>
@@ -10848,25 +10929,25 @@
       <c r="D4" s="404" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="467" t="s">
+      <c r="E4" s="466" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="466" t="s">
+      <c r="F4" s="465" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="446" t="s">
+      <c r="G4" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="476" t="s">
+      <c r="H4" s="475" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="476" t="s">
+      <c r="I4" s="475" t="s">
         <v>60</v>
       </c>
       <c r="J4" s="414" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="415" t="s">
+      <c r="K4" s="483" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="414" t="s">
@@ -10878,64 +10959,64 @@
       <c r="N4" s="414" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="414" t="s">
+      <c r="O4" s="484" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="414" t="s">
+      <c r="P4" s="484" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="416" t="s">
+      <c r="Q4" s="415" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="416" t="s">
+      <c r="R4" s="415" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="416" t="s">
+      <c r="S4" s="415" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="416" t="s">
+      <c r="T4" s="415" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="387"/>
-      <c r="B5" s="483" t="s">
+      <c r="B5" s="482" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="404"/>
-      <c r="E5" s="468"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="444"/>
-      <c r="H5" s="477" t="s">
+      <c r="E5" s="467"/>
+      <c r="F5" s="457"/>
+      <c r="G5" s="443"/>
+      <c r="H5" s="476" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="478" t="s">
+      <c r="I5" s="477" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="441" t="s">
+      <c r="J5" s="440" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="440" t="s">
+      <c r="K5" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="440" t="s">
+      <c r="L5" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="440" t="s">
+      <c r="M5" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="440"/>
-      <c r="O5" s="440"/>
-      <c r="P5" s="440" t="s">
+      <c r="N5" s="439"/>
+      <c r="O5" s="439"/>
+      <c r="P5" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" s="440"/>
-      <c r="R5" s="440" t="s">
+      <c r="Q5" s="439"/>
+      <c r="R5" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="440"/>
-      <c r="T5" s="440" t="s">
+      <c r="S5" s="439"/>
+      <c r="T5" s="439" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10946,28 +11027,28 @@
       </c>
       <c r="C6" s="405"/>
       <c r="D6" s="405"/>
-      <c r="E6" s="468"/>
-      <c r="F6" s="459"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="477" t="s">
+      <c r="E6" s="467"/>
+      <c r="F6" s="458"/>
+      <c r="G6" s="444"/>
+      <c r="H6" s="476" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="478" t="s">
+      <c r="I6" s="477" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="441"/>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
-      <c r="M6" s="440"/>
-      <c r="N6" s="440"/>
-      <c r="O6" s="440"/>
-      <c r="P6" s="440"/>
-      <c r="Q6" s="440"/>
-      <c r="R6" s="440"/>
-      <c r="S6" s="440"/>
-      <c r="T6" s="440"/>
-    </row>
-    <row r="7" spans="1:20" ht="47.25" customHeight="1">
+      <c r="J6" s="440"/>
+      <c r="K6" s="439"/>
+      <c r="L6" s="439"/>
+      <c r="M6" s="439"/>
+      <c r="N6" s="439"/>
+      <c r="O6" s="439"/>
+      <c r="P6" s="439"/>
+      <c r="Q6" s="439"/>
+      <c r="R6" s="439"/>
+      <c r="S6" s="439"/>
+      <c r="T6" s="439"/>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1">
       <c r="B7" s="389" t="s">
         <v>66</v>
       </c>
@@ -10977,38 +11058,38 @@
       <c r="D7" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="469" t="s">
+      <c r="E7" s="468" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="460" t="s">
+      <c r="F7" s="459" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="447" t="s">
+      <c r="G7" s="446" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="477" t="s">
+      <c r="H7" s="476" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="478" t="s">
+      <c r="I7" s="477" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="440"/>
-      <c r="K7" s="440"/>
-      <c r="L7" s="440"/>
-      <c r="M7" s="440"/>
-      <c r="N7" s="440"/>
-      <c r="O7" s="443" t="s">
+      <c r="J7" s="439"/>
+      <c r="K7" s="439"/>
+      <c r="L7" s="439"/>
+      <c r="M7" s="439"/>
+      <c r="N7" s="439"/>
+      <c r="O7" s="442" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="440" t="s">
+      <c r="P7" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="440"/>
-      <c r="R7" s="440"/>
-      <c r="S7" s="440"/>
-      <c r="T7" s="440"/>
-    </row>
-    <row r="8" spans="1:20" ht="37.5">
+      <c r="Q7" s="439"/>
+      <c r="R7" s="439"/>
+      <c r="S7" s="439"/>
+      <c r="T7" s="439"/>
+    </row>
+    <row r="8" spans="1:20" ht="27.75" customHeight="1">
       <c r="B8" s="389" t="s">
         <v>71</v>
       </c>
@@ -11016,37 +11097,37 @@
         <v>63</v>
       </c>
       <c r="D8" s="406"/>
-      <c r="E8" s="469" t="s">
+      <c r="E8" s="468" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="460" t="s">
+      <c r="F8" s="459" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="413" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="477"/>
-      <c r="I8" s="478" t="s">
+      <c r="H8" s="476"/>
+      <c r="I8" s="477" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="440" t="s">
+      <c r="J8" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="443"/>
-      <c r="L8" s="440"/>
-      <c r="M8" s="440"/>
-      <c r="N8" s="440"/>
-      <c r="O8" s="440"/>
-      <c r="P8" s="440" t="s">
+      <c r="K8" s="442"/>
+      <c r="L8" s="439"/>
+      <c r="M8" s="439"/>
+      <c r="N8" s="439"/>
+      <c r="O8" s="439"/>
+      <c r="P8" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="440"/>
-      <c r="R8" s="440"/>
-      <c r="S8" s="440"/>
-      <c r="T8" s="440"/>
-    </row>
-    <row r="9" spans="1:20" ht="125.25">
-      <c r="B9" s="488" t="s">
+      <c r="Q8" s="439"/>
+      <c r="R8" s="439"/>
+      <c r="S8" s="439"/>
+      <c r="T8" s="439"/>
+    </row>
+    <row r="9" spans="1:20" ht="30.75" customHeight="1">
+      <c r="B9" s="491" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="407" t="s">
@@ -11055,244 +11136,244 @@
       <c r="D9" s="407" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="469" t="s">
+      <c r="E9" s="468" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="460" t="s">
+      <c r="F9" s="459" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="413" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="477"/>
-      <c r="I9" s="478" t="s">
+      <c r="H9" s="476"/>
+      <c r="I9" s="477" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="440"/>
-      <c r="K9" s="440"/>
-      <c r="L9" s="440" t="s">
+      <c r="J9" s="439"/>
+      <c r="K9" s="439"/>
+      <c r="L9" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="440"/>
-      <c r="N9" s="440"/>
-      <c r="O9" s="440"/>
-      <c r="P9" s="443"/>
-      <c r="Q9" s="440"/>
-      <c r="R9" s="440"/>
-      <c r="S9" s="440"/>
-      <c r="T9" s="440"/>
+      <c r="M9" s="439"/>
+      <c r="N9" s="439"/>
+      <c r="O9" s="439"/>
+      <c r="P9" s="442"/>
+      <c r="Q9" s="439"/>
+      <c r="R9" s="439"/>
+      <c r="S9" s="439"/>
+      <c r="T9" s="439"/>
     </row>
     <row r="10" spans="1:20" ht="33.75" customHeight="1">
-      <c r="B10" s="488"/>
+      <c r="B10" s="491"/>
       <c r="C10" s="406" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="406"/>
-      <c r="E10" s="469" t="s">
+      <c r="E10" s="468" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="460" t="s">
+      <c r="F10" s="459" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="413" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="477" t="s">
+      <c r="H10" s="476" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="478" t="s">
+      <c r="I10" s="477" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="440"/>
-      <c r="K10" s="440" t="s">
+      <c r="J10" s="439"/>
+      <c r="K10" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="440"/>
-      <c r="M10" s="440"/>
-      <c r="N10" s="440"/>
-      <c r="O10" s="440"/>
-      <c r="P10" s="443"/>
-      <c r="Q10" s="440"/>
-      <c r="R10" s="440"/>
-      <c r="S10" s="440"/>
-      <c r="T10" s="440"/>
+      <c r="L10" s="439"/>
+      <c r="M10" s="439"/>
+      <c r="N10" s="439"/>
+      <c r="O10" s="439"/>
+      <c r="P10" s="442"/>
+      <c r="Q10" s="439"/>
+      <c r="R10" s="439"/>
+      <c r="S10" s="439"/>
+      <c r="T10" s="439"/>
     </row>
     <row r="11" spans="1:20" ht="28.5" customHeight="1">
-      <c r="B11" s="488"/>
+      <c r="B11" s="491"/>
       <c r="C11" s="406" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="406"/>
-      <c r="E11" s="469" t="s">
+      <c r="E11" s="468" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="460" t="s">
+      <c r="F11" s="459" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="413" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="477" t="s">
+      <c r="H11" s="476" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="478" t="s">
+      <c r="I11" s="477" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="440"/>
-      <c r="K11" s="440" t="s">
+      <c r="J11" s="439"/>
+      <c r="K11" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="440"/>
-      <c r="M11" s="440"/>
-      <c r="N11" s="440"/>
-      <c r="O11" s="440"/>
-      <c r="P11" s="440" t="s">
+      <c r="L11" s="439"/>
+      <c r="M11" s="439"/>
+      <c r="N11" s="439"/>
+      <c r="O11" s="439"/>
+      <c r="P11" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="440"/>
-      <c r="R11" s="440"/>
-      <c r="S11" s="440"/>
-      <c r="T11" s="440"/>
+      <c r="Q11" s="439"/>
+      <c r="R11" s="439"/>
+      <c r="S11" s="439"/>
+      <c r="T11" s="439"/>
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1">
-      <c r="B12" s="489"/>
+      <c r="B12" s="492"/>
       <c r="C12" s="406" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="407"/>
-      <c r="E12" s="469" t="s">
+      <c r="E12" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="460" t="s">
+      <c r="F12" s="459" t="s">
         <v>91</v>
       </c>
       <c r="G12" s="391" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="477"/>
-      <c r="I12" s="478" t="s">
+      <c r="H12" s="476"/>
+      <c r="I12" s="477" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="440"/>
-      <c r="K12" s="443"/>
-      <c r="L12" s="440"/>
-      <c r="M12" s="440" t="s">
+      <c r="J12" s="439"/>
+      <c r="K12" s="442"/>
+      <c r="L12" s="439"/>
+      <c r="M12" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="440"/>
-      <c r="O12" s="440"/>
-      <c r="P12" s="443"/>
-      <c r="Q12" s="440"/>
-      <c r="R12" s="440"/>
-      <c r="S12" s="440"/>
-      <c r="T12" s="440"/>
-    </row>
-    <row r="13" spans="1:20" ht="159.75" customHeight="1">
-      <c r="B13" s="442"/>
+      <c r="N12" s="439"/>
+      <c r="O12" s="439"/>
+      <c r="P12" s="442"/>
+      <c r="Q12" s="439"/>
+      <c r="R12" s="439"/>
+      <c r="S12" s="439"/>
+      <c r="T12" s="439"/>
+    </row>
+    <row r="13" spans="1:20" ht="31.5" customHeight="1">
+      <c r="B13" s="441"/>
       <c r="C13" s="406" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="407"/>
-      <c r="E13" s="469" t="s">
+      <c r="E13" s="468" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="460" t="s">
+      <c r="F13" s="459" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="391" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="478" t="s">
+      <c r="H13" s="477" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="478" t="s">
+      <c r="I13" s="477" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="440"/>
-      <c r="K13" s="440"/>
-      <c r="L13" s="440"/>
-      <c r="M13" s="440"/>
-      <c r="N13" s="440"/>
-      <c r="O13" s="440"/>
-      <c r="P13" s="440" t="s">
+      <c r="J13" s="439"/>
+      <c r="K13" s="439"/>
+      <c r="L13" s="439"/>
+      <c r="M13" s="439"/>
+      <c r="N13" s="439"/>
+      <c r="O13" s="439"/>
+      <c r="P13" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="440"/>
-      <c r="R13" s="440" t="s">
+      <c r="Q13" s="439"/>
+      <c r="R13" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="S13" s="440"/>
-      <c r="T13" s="440"/>
-    </row>
-    <row r="14" spans="1:20" ht="76.5" customHeight="1">
-      <c r="B14" s="442"/>
+      <c r="S13" s="439"/>
+      <c r="T13" s="439"/>
+    </row>
+    <row r="14" spans="1:20" ht="33.75" customHeight="1">
+      <c r="B14" s="441"/>
       <c r="C14" s="406" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="407"/>
-      <c r="E14" s="469" t="s">
+      <c r="E14" s="468" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="460" t="s">
+      <c r="F14" s="459" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="391" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="478" t="s">
+      <c r="H14" s="477" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="478" t="s">
+      <c r="I14" s="477" t="s">
         <v>103</v>
       </c>
-      <c r="J14" s="440"/>
-      <c r="K14" s="440" t="s">
+      <c r="J14" s="439"/>
+      <c r="K14" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="440"/>
-      <c r="M14" s="440"/>
-      <c r="N14" s="440"/>
-      <c r="O14" s="440"/>
-      <c r="P14" s="440" t="s">
+      <c r="L14" s="439"/>
+      <c r="M14" s="439"/>
+      <c r="N14" s="439"/>
+      <c r="O14" s="439"/>
+      <c r="P14" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q14" s="440"/>
-      <c r="R14" s="440"/>
-      <c r="S14" s="440" t="s">
+      <c r="Q14" s="439"/>
+      <c r="R14" s="439"/>
+      <c r="S14" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="440"/>
-    </row>
-    <row r="15" spans="1:20" ht="62.25">
-      <c r="B15" s="442"/>
+      <c r="T14" s="439"/>
+    </row>
+    <row r="15" spans="1:20" ht="29.25" customHeight="1">
+      <c r="B15" s="441"/>
       <c r="C15" s="406" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="407"/>
-      <c r="E15" s="469" t="s">
+      <c r="E15" s="468" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="460"/>
+      <c r="F15" s="459"/>
       <c r="G15" s="391"/>
-      <c r="H15" s="477"/>
-      <c r="I15" s="478" t="s">
+      <c r="H15" s="476"/>
+      <c r="I15" s="477" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="440"/>
-      <c r="K15" s="440"/>
-      <c r="L15" s="440"/>
-      <c r="M15" s="440"/>
-      <c r="N15" s="440"/>
-      <c r="O15" s="440"/>
-      <c r="P15" s="443"/>
-      <c r="Q15" s="440"/>
-      <c r="R15" s="440"/>
-      <c r="S15" s="440"/>
-      <c r="T15" s="440" t="s">
+      <c r="J15" s="439"/>
+      <c r="K15" s="439"/>
+      <c r="L15" s="439"/>
+      <c r="M15" s="439"/>
+      <c r="N15" s="439"/>
+      <c r="O15" s="439"/>
+      <c r="P15" s="442"/>
+      <c r="Q15" s="439"/>
+      <c r="R15" s="439"/>
+      <c r="S15" s="439"/>
+      <c r="T15" s="439" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="33" customHeight="1">
+    <row r="16" spans="1:20" ht="48.75" customHeight="1">
       <c r="B16" s="389" t="s">
         <v>106</v>
       </c>
@@ -11302,44 +11383,44 @@
       <c r="D16" s="406" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="469" t="s">
+      <c r="E16" s="468" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="461" t="s">
+      <c r="F16" s="460" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="413" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="477" t="s">
+      <c r="H16" s="476" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="478" t="s">
+      <c r="I16" s="477" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="440"/>
-      <c r="K16" s="440" t="s">
+      <c r="J16" s="439"/>
+      <c r="K16" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="440" t="s">
+      <c r="L16" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="440" t="s">
+      <c r="M16" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="440"/>
-      <c r="O16" s="440"/>
-      <c r="P16" s="443"/>
-      <c r="Q16" s="440"/>
-      <c r="R16" s="440" t="s">
+      <c r="N16" s="439"/>
+      <c r="O16" s="439"/>
+      <c r="P16" s="442"/>
+      <c r="Q16" s="439"/>
+      <c r="R16" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="S16" s="440"/>
-      <c r="T16" s="440" t="s">
+      <c r="S16" s="439"/>
+      <c r="T16" s="439" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="33.75" customHeight="1">
+    <row r="17" spans="2:20" ht="39.75" customHeight="1">
       <c r="B17" s="389" t="s">
         <v>111</v>
       </c>
@@ -11347,32 +11428,32 @@
         <v>63</v>
       </c>
       <c r="D17" s="406"/>
-      <c r="E17" s="469"/>
-      <c r="F17" s="460" t="s">
+      <c r="E17" s="468"/>
+      <c r="F17" s="459" t="s">
         <v>112</v>
       </c>
       <c r="G17" s="413" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="477"/>
-      <c r="I17" s="478" t="s">
+      <c r="H17" s="476"/>
+      <c r="I17" s="477" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="440"/>
-      <c r="K17" s="440"/>
-      <c r="L17" s="440"/>
-      <c r="M17" s="440"/>
-      <c r="N17" s="440"/>
-      <c r="O17" s="440"/>
-      <c r="P17" s="440"/>
-      <c r="Q17" s="440" t="s">
+      <c r="J17" s="439"/>
+      <c r="K17" s="439"/>
+      <c r="L17" s="439"/>
+      <c r="M17" s="439"/>
+      <c r="N17" s="439"/>
+      <c r="O17" s="439"/>
+      <c r="P17" s="439"/>
+      <c r="Q17" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="R17" s="440"/>
-      <c r="S17" s="440"/>
-      <c r="T17" s="440"/>
-    </row>
-    <row r="18" spans="2:20" ht="33.75" customHeight="1">
+      <c r="R17" s="439"/>
+      <c r="S17" s="439"/>
+      <c r="T17" s="439"/>
+    </row>
+    <row r="18" spans="2:20" ht="29.25" customHeight="1">
       <c r="B18" s="389" t="s">
         <v>114</v>
       </c>
@@ -11380,105 +11461,105 @@
         <v>115</v>
       </c>
       <c r="D18" s="406"/>
-      <c r="E18" s="469" t="s">
+      <c r="E18" s="468" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="461" t="s">
+      <c r="F18" s="460" t="s">
         <v>116</v>
       </c>
       <c r="G18" s="390" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="477"/>
-      <c r="I18" s="478" t="s">
+      <c r="H18" s="476"/>
+      <c r="I18" s="477" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="440"/>
-      <c r="K18" s="440"/>
-      <c r="L18" s="440"/>
-      <c r="M18" s="440"/>
-      <c r="N18" s="440" t="s">
+      <c r="J18" s="439"/>
+      <c r="K18" s="439"/>
+      <c r="L18" s="439"/>
+      <c r="M18" s="439"/>
+      <c r="N18" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="440"/>
-      <c r="P18" s="440" t="s">
+      <c r="O18" s="439"/>
+      <c r="P18" s="486" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="440"/>
-      <c r="R18" s="440"/>
-      <c r="S18" s="440"/>
-      <c r="T18" s="440"/>
+      <c r="Q18" s="439"/>
+      <c r="R18" s="439"/>
+      <c r="S18" s="439"/>
+      <c r="T18" s="439"/>
     </row>
     <row r="19" spans="2:20" ht="30" customHeight="1">
-      <c r="B19" s="417"/>
+      <c r="B19" s="416"/>
       <c r="C19" s="406" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="406"/>
-      <c r="E19" s="469" t="s">
+      <c r="E19" s="468" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="461" t="s">
+      <c r="F19" s="460" t="s">
         <v>120</v>
       </c>
       <c r="G19" s="390" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="477"/>
-      <c r="I19" s="478" t="s">
+      <c r="H19" s="476"/>
+      <c r="I19" s="477" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="440"/>
-      <c r="K19" s="440"/>
-      <c r="L19" s="440"/>
-      <c r="M19" s="440"/>
-      <c r="N19" s="440"/>
-      <c r="O19" s="440"/>
-      <c r="P19" s="440" t="s">
+      <c r="J19" s="439"/>
+      <c r="K19" s="439"/>
+      <c r="L19" s="439"/>
+      <c r="M19" s="439"/>
+      <c r="N19" s="439"/>
+      <c r="O19" s="439"/>
+      <c r="P19" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="440"/>
-      <c r="R19" s="440"/>
-      <c r="S19" s="440"/>
-      <c r="T19" s="440"/>
-    </row>
-    <row r="20" spans="2:20" ht="77.25" customHeight="1">
-      <c r="B20" s="417" t="s">
+      <c r="Q19" s="439"/>
+      <c r="R19" s="439"/>
+      <c r="S19" s="439"/>
+      <c r="T19" s="439"/>
+    </row>
+    <row r="20" spans="2:20" ht="28.5" customHeight="1">
+      <c r="B20" s="416" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="406" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="406"/>
-      <c r="E20" s="469" t="s">
+      <c r="E20" s="468" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="462" t="s">
+      <c r="F20" s="461" t="s">
         <v>124</v>
       </c>
       <c r="G20" s="390" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="477"/>
-      <c r="I20" s="479" t="s">
+      <c r="H20" s="476"/>
+      <c r="I20" s="478" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="440"/>
-      <c r="K20" s="440"/>
-      <c r="L20" s="440"/>
-      <c r="M20" s="440"/>
-      <c r="N20" s="440"/>
-      <c r="O20" s="440"/>
-      <c r="P20" s="440" t="s">
+      <c r="J20" s="439"/>
+      <c r="K20" s="439"/>
+      <c r="L20" s="439"/>
+      <c r="M20" s="439"/>
+      <c r="N20" s="439"/>
+      <c r="O20" s="439"/>
+      <c r="P20" s="439" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="440"/>
-      <c r="R20" s="440"/>
-      <c r="S20" s="440"/>
-      <c r="T20" s="440"/>
-    </row>
-    <row r="21" spans="2:20" ht="30" customHeight="1">
-      <c r="B21" s="417" t="s">
+      <c r="Q20" s="439"/>
+      <c r="R20" s="439"/>
+      <c r="S20" s="439"/>
+      <c r="T20" s="439"/>
+    </row>
+    <row r="21" spans="2:20" ht="39.75" customHeight="1">
+      <c r="B21" s="416" t="s">
         <v>126</v>
       </c>
       <c r="C21" s="406" t="s">
@@ -11487,41 +11568,41 @@
       <c r="D21" s="407" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="464" t="s">
+      <c r="E21" s="463" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="463" t="s">
+      <c r="F21" s="462" t="s">
         <v>129</v>
       </c>
       <c r="G21" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="477"/>
-      <c r="I21" s="478"/>
-      <c r="J21" s="441"/>
-      <c r="K21" s="440" t="s">
+      <c r="H21" s="476"/>
+      <c r="I21" s="477"/>
+      <c r="J21" s="440"/>
+      <c r="K21" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="440" t="s">
+      <c r="L21" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="440"/>
-      <c r="N21" s="440"/>
-      <c r="O21" s="440"/>
-      <c r="P21" s="440" t="s">
+      <c r="M21" s="439"/>
+      <c r="N21" s="439"/>
+      <c r="O21" s="439"/>
+      <c r="P21" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="440" t="s">
+      <c r="Q21" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="440" t="s">
+      <c r="R21" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="440"/>
-      <c r="T21" s="440"/>
+      <c r="S21" s="439"/>
+      <c r="T21" s="439"/>
     </row>
     <row r="22" spans="2:20" ht="30" customHeight="1">
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="416" t="s">
         <v>130</v>
       </c>
       <c r="C22" s="406" t="s">
@@ -11530,104 +11611,104 @@
       <c r="D22" s="407" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="464" t="s">
+      <c r="E22" s="463" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="464" t="s">
+      <c r="F22" s="463" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="477"/>
-      <c r="I22" s="478"/>
-      <c r="J22" s="441" t="s">
+      <c r="H22" s="476"/>
+      <c r="I22" s="477"/>
+      <c r="J22" s="440" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="440" t="s">
+      <c r="K22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="440" t="s">
+      <c r="L22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="M22" s="440" t="s">
+      <c r="M22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="440" t="s">
+      <c r="N22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="440" t="s">
+      <c r="O22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="440" t="s">
+      <c r="P22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q22" s="440" t="s">
+      <c r="Q22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="R22" s="440" t="s">
+      <c r="R22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="440" t="s">
+      <c r="S22" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="T22" s="440"/>
+      <c r="T22" s="439"/>
     </row>
     <row r="23" spans="2:20" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B23" s="418"/>
+      <c r="B23" s="417"/>
       <c r="C23" s="406" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="407" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="470" t="s">
+      <c r="E23" s="469" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="465" t="s">
+      <c r="F23" s="464" t="s">
         <v>133</v>
       </c>
       <c r="G23" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="477"/>
-      <c r="I23" s="478"/>
-      <c r="J23" s="441" t="s">
+      <c r="H23" s="476"/>
+      <c r="I23" s="477"/>
+      <c r="J23" s="440" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="440" t="s">
+      <c r="K23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="440" t="s">
+      <c r="L23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="440" t="s">
+      <c r="M23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="440" t="s">
+      <c r="N23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="440" t="s">
+      <c r="O23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="440" t="s">
+      <c r="P23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="440" t="s">
+      <c r="Q23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="440" t="s">
+      <c r="R23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="S23" s="440" t="s">
+      <c r="S23" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="T23" s="440"/>
+      <c r="T23" s="439"/>
     </row>
     <row r="24" spans="2:20"/>
     <row r="25" spans="2:20">
       <c r="H25"/>
-      <c r="I25" s="475"/>
+      <c r="I25" s="474"/>
     </row>
     <row r="26" spans="2:20"/>
     <row r="27" spans="2:20"/>
@@ -11653,6 +11734,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11778,12 +11860,12 @@
       <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="C2" s="494" t="s">
+      <c r="C2" s="627" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="494"/>
-      <c r="E2" s="494"/>
-      <c r="F2" s="494"/>
+      <c r="D2" s="627"/>
+      <c r="E2" s="627"/>
+      <c r="F2" s="627"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
@@ -11800,21 +11882,21 @@
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="E3" s="495" t="s">
+      <c r="E3" s="628" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="495"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="495"/>
-      <c r="I3" s="495"/>
-      <c r="J3" s="495"/>
-      <c r="K3" s="496" t="s">
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="628"/>
+      <c r="I3" s="628"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="629" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="496"/>
-      <c r="M3" s="496"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="496"/>
+      <c r="L3" s="629"/>
+      <c r="M3" s="629"/>
+      <c r="N3" s="629"/>
+      <c r="O3" s="629"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -11934,14 +12016,14 @@
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="497" t="s">
+      <c r="B8" s="566" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="500">
+      <c r="C8" s="630">
         <v>1</v>
       </c>
-      <c r="D8" s="503"/>
-      <c r="E8" s="506" t="s">
+      <c r="D8" s="522"/>
+      <c r="E8" s="525" t="s">
         <v>158</v>
       </c>
       <c r="F8" s="79" t="s">
@@ -11955,7 +12037,7 @@
       <c r="J8" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="509" t="s">
+      <c r="K8" s="631" t="s">
         <v>162</v>
       </c>
       <c r="L8" s="84" t="s">
@@ -11976,10 +12058,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5"/>
-      <c r="B9" s="498"/>
-      <c r="C9" s="501"/>
-      <c r="D9" s="504"/>
-      <c r="E9" s="507"/>
+      <c r="B9" s="567"/>
+      <c r="C9" s="546"/>
+      <c r="D9" s="523"/>
+      <c r="E9" s="526"/>
       <c r="F9" s="87" t="s">
         <v>165</v>
       </c>
@@ -11993,7 +12075,7 @@
       <c r="J9" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="510"/>
+      <c r="K9" s="632"/>
       <c r="L9" s="91" t="s">
         <v>165</v>
       </c>
@@ -12012,10 +12094,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5"/>
-      <c r="B10" s="498"/>
-      <c r="C10" s="501"/>
-      <c r="D10" s="504"/>
-      <c r="E10" s="507"/>
+      <c r="B10" s="567"/>
+      <c r="C10" s="546"/>
+      <c r="D10" s="523"/>
+      <c r="E10" s="526"/>
       <c r="F10" s="87" t="s">
         <v>169</v>
       </c>
@@ -12048,10 +12130,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5"/>
-      <c r="B11" s="498"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="504"/>
-      <c r="E11" s="507"/>
+      <c r="B11" s="567"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="523"/>
+      <c r="E11" s="526"/>
       <c r="F11" s="87" t="s">
         <v>174</v>
       </c>
@@ -12076,10 +12158,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5"/>
-      <c r="B12" s="499"/>
-      <c r="C12" s="502"/>
-      <c r="D12" s="505"/>
-      <c r="E12" s="508"/>
+      <c r="B12" s="611"/>
+      <c r="C12" s="547"/>
+      <c r="D12" s="524"/>
+      <c r="E12" s="527"/>
       <c r="F12" s="100" t="s">
         <v>176</v>
       </c>
@@ -12109,34 +12191,34 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5"/>
-      <c r="B14" s="497" t="s">
+      <c r="B14" s="566" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="511">
+      <c r="C14" s="592">
         <v>2</v>
       </c>
-      <c r="D14" s="514"/>
-      <c r="E14" s="517" t="s">
+      <c r="D14" s="633"/>
+      <c r="E14" s="636" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="492" t="s">
+      <c r="F14" s="625" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="492" t="s">
+      <c r="G14" s="625" t="s">
         <v>63</v>
       </c>
       <c r="H14" s="111" t="s">
         <v>179</v>
       </c>
       <c r="I14" s="112"/>
-      <c r="J14" s="520" t="s">
+      <c r="J14" s="639" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="522"/>
-      <c r="L14" s="525"/>
-      <c r="M14" s="525"/>
+      <c r="K14" s="528"/>
+      <c r="L14" s="616"/>
+      <c r="M14" s="616"/>
       <c r="N14" s="113"/>
-      <c r="O14" s="527"/>
+      <c r="O14" s="618"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -12145,22 +12227,22 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5"/>
-      <c r="B15" s="498"/>
-      <c r="C15" s="512"/>
-      <c r="D15" s="515"/>
-      <c r="E15" s="518"/>
-      <c r="F15" s="493"/>
-      <c r="G15" s="493"/>
+      <c r="B15" s="567"/>
+      <c r="C15" s="593"/>
+      <c r="D15" s="634"/>
+      <c r="E15" s="637"/>
+      <c r="F15" s="626"/>
+      <c r="G15" s="626"/>
       <c r="H15" s="114" t="s">
         <v>181</v>
       </c>
       <c r="I15" s="115"/>
-      <c r="J15" s="521"/>
-      <c r="K15" s="523"/>
-      <c r="L15" s="526"/>
-      <c r="M15" s="526"/>
+      <c r="J15" s="640"/>
+      <c r="K15" s="641"/>
+      <c r="L15" s="617"/>
+      <c r="M15" s="617"/>
       <c r="N15" s="116"/>
-      <c r="O15" s="528"/>
+      <c r="O15" s="619"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -12169,22 +12251,22 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5"/>
-      <c r="B16" s="498"/>
-      <c r="C16" s="512"/>
-      <c r="D16" s="515"/>
-      <c r="E16" s="518"/>
-      <c r="F16" s="493"/>
-      <c r="G16" s="493"/>
+      <c r="B16" s="567"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="634"/>
+      <c r="E16" s="637"/>
+      <c r="F16" s="626"/>
+      <c r="G16" s="626"/>
       <c r="H16" s="114" t="s">
         <v>182</v>
       </c>
       <c r="I16" s="115"/>
-      <c r="J16" s="521"/>
-      <c r="K16" s="523"/>
-      <c r="L16" s="526"/>
-      <c r="M16" s="526"/>
+      <c r="J16" s="640"/>
+      <c r="K16" s="641"/>
+      <c r="L16" s="617"/>
+      <c r="M16" s="617"/>
       <c r="N16" s="116"/>
-      <c r="O16" s="528"/>
+      <c r="O16" s="619"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -12193,22 +12275,22 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5"/>
-      <c r="B17" s="498"/>
-      <c r="C17" s="512"/>
-      <c r="D17" s="515"/>
-      <c r="E17" s="518"/>
-      <c r="F17" s="493"/>
-      <c r="G17" s="493"/>
+      <c r="B17" s="567"/>
+      <c r="C17" s="593"/>
+      <c r="D17" s="634"/>
+      <c r="E17" s="637"/>
+      <c r="F17" s="626"/>
+      <c r="G17" s="626"/>
       <c r="H17" s="114" t="s">
         <v>183</v>
       </c>
       <c r="I17" s="115"/>
-      <c r="J17" s="521"/>
-      <c r="K17" s="523"/>
-      <c r="L17" s="526"/>
-      <c r="M17" s="526"/>
+      <c r="J17" s="640"/>
+      <c r="K17" s="641"/>
+      <c r="L17" s="617"/>
+      <c r="M17" s="617"/>
       <c r="N17" s="116"/>
-      <c r="O17" s="528"/>
+      <c r="O17" s="619"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -12217,10 +12299,10 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5"/>
-      <c r="B18" s="498"/>
-      <c r="C18" s="512"/>
-      <c r="D18" s="515"/>
-      <c r="E18" s="518"/>
+      <c r="B18" s="567"/>
+      <c r="C18" s="593"/>
+      <c r="D18" s="634"/>
+      <c r="E18" s="637"/>
       <c r="F18" s="114" t="s">
         <v>184</v>
       </c>
@@ -12232,7 +12314,7 @@
       </c>
       <c r="I18" s="118"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="523"/>
+      <c r="K18" s="641"/>
       <c r="L18" s="116"/>
       <c r="M18" s="120"/>
       <c r="N18" s="120"/>
@@ -12245,10 +12327,10 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5"/>
-      <c r="B19" s="499"/>
-      <c r="C19" s="513"/>
-      <c r="D19" s="516"/>
-      <c r="E19" s="519"/>
+      <c r="B19" s="611"/>
+      <c r="C19" s="594"/>
+      <c r="D19" s="635"/>
+      <c r="E19" s="638"/>
       <c r="F19" s="122" t="s">
         <v>186</v>
       </c>
@@ -12260,7 +12342,7 @@
       </c>
       <c r="I19" s="123"/>
       <c r="J19" s="124"/>
-      <c r="K19" s="524"/>
+      <c r="K19" s="538"/>
       <c r="L19" s="125"/>
       <c r="M19" s="125"/>
       <c r="N19" s="125"/>
@@ -12276,27 +12358,27 @@
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="127"/>
-      <c r="G20" s="419"/>
-      <c r="H20" s="419"/>
-      <c r="I20" s="419"/>
+      <c r="G20" s="418"/>
+      <c r="H20" s="418"/>
+      <c r="I20" s="418"/>
       <c r="K20" s="3"/>
       <c r="L20" s="127"/>
-      <c r="M20" s="419"/>
-      <c r="N20" s="419"/>
+      <c r="M20" s="418"/>
+      <c r="N20" s="418"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5"/>
-      <c r="B21" s="538" t="s">
+      <c r="B21" s="531" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="541">
+      <c r="C21" s="603">
         <v>3</v>
       </c>
-      <c r="D21" s="544"/>
-      <c r="E21" s="547" t="s">
+      <c r="D21" s="606"/>
+      <c r="E21" s="585" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="550" t="s">
+      <c r="F21" s="609" t="s">
         <v>190</v>
       </c>
       <c r="G21" s="128" t="s">
@@ -12309,8 +12391,8 @@
       <c r="J21" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="529"/>
-      <c r="L21" s="532"/>
+      <c r="K21" s="620"/>
+      <c r="L21" s="623"/>
       <c r="M21" s="131"/>
       <c r="N21" s="131"/>
       <c r="O21" s="132"/>
@@ -12322,11 +12404,11 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5"/>
-      <c r="B22" s="539"/>
-      <c r="C22" s="542"/>
-      <c r="D22" s="545"/>
-      <c r="E22" s="548"/>
-      <c r="F22" s="551"/>
+      <c r="B22" s="555"/>
+      <c r="C22" s="604"/>
+      <c r="D22" s="607"/>
+      <c r="E22" s="586"/>
+      <c r="F22" s="610"/>
       <c r="G22" s="133" t="s">
         <v>193</v>
       </c>
@@ -12339,8 +12421,8 @@
       <c r="J22" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="K22" s="530"/>
-      <c r="L22" s="533"/>
+      <c r="K22" s="621"/>
+      <c r="L22" s="624"/>
       <c r="M22" s="134"/>
       <c r="N22" s="134"/>
       <c r="O22" s="121"/>
@@ -12352,10 +12434,10 @@
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="540"/>
-      <c r="C23" s="543"/>
-      <c r="D23" s="546"/>
-      <c r="E23" s="549"/>
+      <c r="B23" s="532"/>
+      <c r="C23" s="605"/>
+      <c r="D23" s="608"/>
+      <c r="E23" s="598"/>
       <c r="F23" s="135" t="s">
         <v>196</v>
       </c>
@@ -12369,7 +12451,7 @@
       <c r="J23" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="531"/>
+      <c r="K23" s="622"/>
       <c r="L23" s="139"/>
       <c r="M23" s="140"/>
       <c r="N23" s="140"/>
@@ -12392,17 +12474,17 @@
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="497" t="s">
+      <c r="B25" s="566" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="541">
+      <c r="C25" s="603">
         <v>4</v>
       </c>
-      <c r="D25" s="544"/>
-      <c r="E25" s="552" t="s">
+      <c r="D25" s="606"/>
+      <c r="E25" s="612" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="554" t="s">
+      <c r="F25" s="614" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="142" t="s">
@@ -12415,8 +12497,8 @@
       <c r="J25" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="534"/>
-      <c r="L25" s="536"/>
+      <c r="K25" s="599"/>
+      <c r="L25" s="601"/>
       <c r="M25" s="143"/>
       <c r="N25" s="131"/>
       <c r="O25" s="132"/>
@@ -12428,11 +12510,11 @@
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="499"/>
-      <c r="C26" s="543"/>
-      <c r="D26" s="546"/>
-      <c r="E26" s="553"/>
-      <c r="F26" s="555"/>
+      <c r="B26" s="611"/>
+      <c r="C26" s="605"/>
+      <c r="D26" s="608"/>
+      <c r="E26" s="613"/>
+      <c r="F26" s="615"/>
       <c r="G26" s="144" t="s">
         <v>204</v>
       </c>
@@ -12443,8 +12525,8 @@
       <c r="J26" s="145" t="s">
         <v>205</v>
       </c>
-      <c r="K26" s="535"/>
-      <c r="L26" s="537"/>
+      <c r="K26" s="600"/>
+      <c r="L26" s="602"/>
       <c r="M26" s="146"/>
       <c r="N26" s="140"/>
       <c r="O26" s="126"/>
@@ -12466,14 +12548,14 @@
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="538" t="s">
+      <c r="B28" s="531" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="511">
+      <c r="C28" s="592">
         <v>5</v>
       </c>
-      <c r="D28" s="556"/>
-      <c r="E28" s="547" t="s">
+      <c r="D28" s="595"/>
+      <c r="E28" s="585" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="150" t="s">
@@ -12502,10 +12584,10 @@
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="539"/>
-      <c r="C29" s="512"/>
-      <c r="D29" s="557"/>
-      <c r="E29" s="548"/>
+      <c r="B29" s="555"/>
+      <c r="C29" s="593"/>
+      <c r="D29" s="596"/>
+      <c r="E29" s="586"/>
       <c r="F29" s="154" t="s">
         <v>211</v>
       </c>
@@ -12532,10 +12614,10 @@
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="539"/>
-      <c r="C30" s="512"/>
-      <c r="D30" s="557"/>
-      <c r="E30" s="548"/>
+      <c r="B30" s="555"/>
+      <c r="C30" s="593"/>
+      <c r="D30" s="596"/>
+      <c r="E30" s="586"/>
       <c r="F30" s="154" t="s">
         <v>214</v>
       </c>
@@ -12562,10 +12644,10 @@
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="540"/>
-      <c r="C31" s="512"/>
-      <c r="D31" s="557"/>
-      <c r="E31" s="548"/>
+      <c r="B31" s="532"/>
+      <c r="C31" s="593"/>
+      <c r="D31" s="596"/>
+      <c r="E31" s="586"/>
       <c r="F31" s="160" t="s">
         <v>216</v>
       </c>
@@ -12592,13 +12674,13 @@
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="539" t="s">
+      <c r="B32" s="555" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="512"/>
-      <c r="D32" s="557"/>
-      <c r="E32" s="548"/>
-      <c r="F32" s="420" t="s">
+      <c r="C32" s="593"/>
+      <c r="D32" s="596"/>
+      <c r="E32" s="586"/>
+      <c r="F32" s="419" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="162" t="s">
@@ -12632,17 +12714,17 @@
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="539"/>
-      <c r="C33" s="512"/>
-      <c r="D33" s="557"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="420" t="s">
+      <c r="B33" s="555"/>
+      <c r="C33" s="593"/>
+      <c r="D33" s="596"/>
+      <c r="E33" s="586"/>
+      <c r="F33" s="419" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="421" t="s">
+      <c r="G33" s="420" t="s">
         <v>227</v>
       </c>
-      <c r="H33" s="421" t="s">
+      <c r="H33" s="420" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="164"/>
@@ -12662,17 +12744,17 @@
     </row>
     <row r="34" spans="1:20" ht="15" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="539"/>
-      <c r="C34" s="512"/>
-      <c r="D34" s="557"/>
-      <c r="E34" s="548"/>
+      <c r="B34" s="555"/>
+      <c r="C34" s="593"/>
+      <c r="D34" s="596"/>
+      <c r="E34" s="586"/>
       <c r="F34" s="167" t="s">
         <v>228</v>
       </c>
       <c r="G34" s="155" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="421" t="s">
+      <c r="H34" s="420" t="s">
         <v>166</v>
       </c>
       <c r="I34" s="164"/>
@@ -12692,17 +12774,17 @@
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="539"/>
-      <c r="C35" s="512"/>
-      <c r="D35" s="557"/>
-      <c r="E35" s="548"/>
+      <c r="B35" s="555"/>
+      <c r="C35" s="593"/>
+      <c r="D35" s="596"/>
+      <c r="E35" s="586"/>
       <c r="F35" s="167" t="s">
         <v>230</v>
       </c>
       <c r="G35" s="155" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="421" t="s">
+      <c r="H35" s="420" t="s">
         <v>166</v>
       </c>
       <c r="I35" s="164"/>
@@ -12727,10 +12809,10 @@
     <row r="36" spans="1:20" ht="15" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="169"/>
-      <c r="C36" s="512"/>
-      <c r="D36" s="557"/>
-      <c r="E36" s="548"/>
-      <c r="F36" s="570" t="s">
+      <c r="C36" s="593"/>
+      <c r="D36" s="596"/>
+      <c r="E36" s="586"/>
+      <c r="F36" s="588" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="170" t="s">
@@ -12742,7 +12824,7 @@
       <c r="I36" s="172"/>
       <c r="J36" s="157"/>
       <c r="K36" s="158"/>
-      <c r="L36" s="559"/>
+      <c r="L36" s="575"/>
       <c r="M36" s="173"/>
       <c r="N36" s="116"/>
       <c r="O36" s="121"/>
@@ -12755,10 +12837,10 @@
     <row r="37" spans="1:20" ht="15" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="174"/>
-      <c r="C37" s="512"/>
-      <c r="D37" s="557"/>
-      <c r="E37" s="548"/>
-      <c r="F37" s="570"/>
+      <c r="C37" s="593"/>
+      <c r="D37" s="596"/>
+      <c r="E37" s="586"/>
+      <c r="F37" s="588"/>
       <c r="G37" s="170" t="s">
         <v>166</v>
       </c>
@@ -12768,7 +12850,7 @@
       <c r="I37" s="172"/>
       <c r="J37" s="157"/>
       <c r="K37" s="158"/>
-      <c r="L37" s="559"/>
+      <c r="L37" s="575"/>
       <c r="M37" s="173"/>
       <c r="N37" s="116"/>
       <c r="O37" s="121"/>
@@ -12781,9 +12863,9 @@
     <row r="38" spans="1:20" ht="15" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="175"/>
-      <c r="C38" s="512"/>
-      <c r="D38" s="557"/>
-      <c r="E38" s="548"/>
+      <c r="C38" s="593"/>
+      <c r="D38" s="596"/>
+      <c r="E38" s="586"/>
       <c r="F38" s="176" t="s">
         <v>235</v>
       </c>
@@ -12809,9 +12891,9 @@
       <c r="B39" s="180" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="513"/>
-      <c r="D39" s="558"/>
-      <c r="E39" s="549"/>
+      <c r="C39" s="594"/>
+      <c r="D39" s="597"/>
+      <c r="E39" s="598"/>
       <c r="F39" s="181" t="s">
         <v>238</v>
       </c>
@@ -12847,17 +12929,17 @@
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="560" t="s">
+      <c r="B41" s="576" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="563">
+      <c r="C41" s="579">
         <v>6</v>
       </c>
-      <c r="D41" s="566"/>
-      <c r="E41" s="547" t="s">
+      <c r="D41" s="582"/>
+      <c r="E41" s="585" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="569" t="s">
+      <c r="F41" s="587" t="s">
         <v>240</v>
       </c>
       <c r="G41" s="188" t="s">
@@ -12887,11 +12969,11 @@
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="561"/>
-      <c r="C42" s="564"/>
-      <c r="D42" s="567"/>
-      <c r="E42" s="548"/>
-      <c r="F42" s="570"/>
+      <c r="B42" s="577"/>
+      <c r="C42" s="580"/>
+      <c r="D42" s="583"/>
+      <c r="E42" s="586"/>
+      <c r="F42" s="588"/>
       <c r="G42" s="155" t="s">
         <v>245</v>
       </c>
@@ -12923,11 +13005,11 @@
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="561"/>
-      <c r="C43" s="564"/>
-      <c r="D43" s="567"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="571" t="s">
+      <c r="B43" s="577"/>
+      <c r="C43" s="580"/>
+      <c r="D43" s="583"/>
+      <c r="E43" s="586"/>
+      <c r="F43" s="589" t="s">
         <v>249</v>
       </c>
       <c r="G43" s="88" t="s">
@@ -12953,11 +13035,11 @@
     </row>
     <row r="44" spans="1:20" ht="15" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="562"/>
-      <c r="C44" s="564"/>
-      <c r="D44" s="567"/>
-      <c r="E44" s="548"/>
-      <c r="F44" s="572"/>
+      <c r="B44" s="578"/>
+      <c r="C44" s="580"/>
+      <c r="D44" s="583"/>
+      <c r="E44" s="586"/>
+      <c r="F44" s="590"/>
       <c r="G44" s="88" t="s">
         <v>252</v>
       </c>
@@ -12982,10 +13064,10 @@
     <row r="45" spans="1:20" ht="15" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="565"/>
-      <c r="D45" s="568"/>
-      <c r="E45" s="548"/>
-      <c r="F45" s="573"/>
+      <c r="C45" s="581"/>
+      <c r="D45" s="584"/>
+      <c r="E45" s="586"/>
+      <c r="F45" s="591"/>
       <c r="G45" s="370" t="s">
         <v>254</v>
       </c>
@@ -13017,17 +13099,17 @@
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1">
       <c r="A47" s="5"/>
-      <c r="B47" s="497" t="s">
+      <c r="B47" s="566" t="s">
         <v>256</v>
       </c>
-      <c r="C47" s="574">
+      <c r="C47" s="568">
         <v>7</v>
       </c>
-      <c r="D47" s="576"/>
-      <c r="E47" s="579" t="s">
+      <c r="D47" s="558"/>
+      <c r="E47" s="570" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="582" t="s">
+      <c r="F47" s="573" t="s">
         <v>258</v>
       </c>
       <c r="G47" s="203" t="s">
@@ -13057,11 +13139,11 @@
     </row>
     <row r="48" spans="1:20" ht="15" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="498"/>
-      <c r="C48" s="575"/>
-      <c r="D48" s="577"/>
-      <c r="E48" s="580"/>
-      <c r="F48" s="583"/>
+      <c r="B48" s="567"/>
+      <c r="C48" s="569"/>
+      <c r="D48" s="559"/>
+      <c r="E48" s="571"/>
+      <c r="F48" s="574"/>
       <c r="G48" s="210"/>
       <c r="H48" s="211"/>
       <c r="I48" s="212"/>
@@ -13084,9 +13166,9 @@
       <c r="B49" s="216" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="575"/>
-      <c r="D49" s="577"/>
-      <c r="E49" s="580"/>
+      <c r="C49" s="569"/>
+      <c r="D49" s="559"/>
+      <c r="E49" s="571"/>
       <c r="F49" s="217" t="s">
         <v>262</v>
       </c>
@@ -13116,9 +13198,9 @@
       <c r="B50" s="220" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="502"/>
-      <c r="D50" s="578"/>
-      <c r="E50" s="581"/>
+      <c r="C50" s="547"/>
+      <c r="D50" s="560"/>
+      <c r="E50" s="572"/>
       <c r="F50" s="221" t="s">
         <v>266</v>
       </c>
@@ -13163,17 +13245,17 @@
     </row>
     <row r="52" spans="1:20" ht="15" customHeight="1">
       <c r="A52" s="5"/>
-      <c r="B52" s="538" t="s">
+      <c r="B52" s="531" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="599">
+      <c r="C52" s="556">
         <v>8</v>
       </c>
-      <c r="D52" s="576"/>
-      <c r="E52" s="602" t="s">
+      <c r="D52" s="558"/>
+      <c r="E52" s="561" t="s">
         <v>271</v>
       </c>
-      <c r="F52" s="605" t="s">
+      <c r="F52" s="564" t="s">
         <v>272</v>
       </c>
       <c r="G52" s="80" t="s">
@@ -13186,8 +13268,8 @@
       <c r="J52" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="K52" s="584"/>
-      <c r="L52" s="587"/>
+      <c r="K52" s="539"/>
+      <c r="L52" s="542"/>
       <c r="M52" s="228"/>
       <c r="N52" s="229"/>
       <c r="O52" s="230"/>
@@ -13199,11 +13281,11 @@
     </row>
     <row r="53" spans="1:20" ht="15" customHeight="1">
       <c r="A53" s="5"/>
-      <c r="B53" s="539"/>
-      <c r="C53" s="600"/>
-      <c r="D53" s="577"/>
-      <c r="E53" s="603"/>
-      <c r="F53" s="606"/>
+      <c r="B53" s="555"/>
+      <c r="C53" s="557"/>
+      <c r="D53" s="559"/>
+      <c r="E53" s="562"/>
+      <c r="F53" s="565"/>
       <c r="G53" s="231" t="s">
         <v>275</v>
       </c>
@@ -13214,8 +13296,8 @@
       <c r="J53" s="233" t="s">
         <v>276</v>
       </c>
-      <c r="K53" s="585"/>
-      <c r="L53" s="588"/>
+      <c r="K53" s="540"/>
+      <c r="L53" s="543"/>
       <c r="M53" s="234"/>
       <c r="N53" s="91"/>
       <c r="O53" s="235"/>
@@ -13227,10 +13309,10 @@
     </row>
     <row r="54" spans="1:20" ht="15" customHeight="1">
       <c r="A54" s="5"/>
-      <c r="B54" s="540"/>
-      <c r="C54" s="601"/>
-      <c r="D54" s="578"/>
-      <c r="E54" s="604"/>
+      <c r="B54" s="532"/>
+      <c r="C54" s="534"/>
+      <c r="D54" s="560"/>
+      <c r="E54" s="563"/>
       <c r="F54" s="236" t="s">
         <v>277</v>
       </c>
@@ -13244,7 +13326,7 @@
       <c r="J54" s="238" t="s">
         <v>279</v>
       </c>
-      <c r="K54" s="586"/>
+      <c r="K54" s="541"/>
       <c r="L54" s="239"/>
       <c r="M54" s="240"/>
       <c r="N54" s="241"/>
@@ -13369,10 +13451,10 @@
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1">
       <c r="A60" s="5"/>
-      <c r="B60" s="589"/>
-      <c r="C60" s="501"/>
-      <c r="D60" s="591"/>
-      <c r="E60" s="593" t="s">
+      <c r="B60" s="544"/>
+      <c r="C60" s="546"/>
+      <c r="D60" s="548"/>
+      <c r="E60" s="550" t="s">
         <v>286</v>
       </c>
       <c r="F60" s="267" t="s">
@@ -13384,7 +13466,7 @@
       <c r="H60" s="268"/>
       <c r="I60" s="269"/>
       <c r="J60" s="270"/>
-      <c r="K60" s="596" t="s">
+      <c r="K60" s="553" t="s">
         <v>286</v>
       </c>
       <c r="L60" s="271"/>
@@ -13399,10 +13481,10 @@
     </row>
     <row r="61" spans="1:20" ht="15" customHeight="1">
       <c r="A61" s="5"/>
-      <c r="B61" s="589"/>
-      <c r="C61" s="501"/>
-      <c r="D61" s="591"/>
-      <c r="E61" s="594"/>
+      <c r="B61" s="544"/>
+      <c r="C61" s="546"/>
+      <c r="D61" s="548"/>
+      <c r="E61" s="551"/>
       <c r="F61" s="273" t="s">
         <v>289</v>
       </c>
@@ -13416,7 +13498,7 @@
       <c r="J61" s="275" t="s">
         <v>291</v>
       </c>
-      <c r="K61" s="597"/>
+      <c r="K61" s="529"/>
       <c r="L61" s="276"/>
       <c r="M61" s="277"/>
       <c r="N61" s="93"/>
@@ -13429,10 +13511,10 @@
     </row>
     <row r="62" spans="1:20" ht="15" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="589"/>
-      <c r="C62" s="501"/>
-      <c r="D62" s="591"/>
-      <c r="E62" s="594"/>
+      <c r="B62" s="544"/>
+      <c r="C62" s="546"/>
+      <c r="D62" s="548"/>
+      <c r="E62" s="551"/>
       <c r="F62" s="279"/>
       <c r="G62" s="274" t="s">
         <v>166</v>
@@ -13444,7 +13526,7 @@
       <c r="J62" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="K62" s="597"/>
+      <c r="K62" s="529"/>
       <c r="L62" s="281"/>
       <c r="M62" s="277"/>
       <c r="N62" s="93"/>
@@ -13457,10 +13539,10 @@
     </row>
     <row r="63" spans="1:20" ht="15" customHeight="1">
       <c r="A63" s="5"/>
-      <c r="B63" s="589"/>
-      <c r="C63" s="501"/>
-      <c r="D63" s="591"/>
-      <c r="E63" s="594"/>
+      <c r="B63" s="544"/>
+      <c r="C63" s="546"/>
+      <c r="D63" s="548"/>
+      <c r="E63" s="551"/>
       <c r="F63" s="279"/>
       <c r="G63" s="274" t="s">
         <v>166</v>
@@ -13472,7 +13554,7 @@
       <c r="J63" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="K63" s="597"/>
+      <c r="K63" s="529"/>
       <c r="L63" s="281"/>
       <c r="M63" s="277"/>
       <c r="N63" s="93"/>
@@ -13485,10 +13567,10 @@
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1">
       <c r="A64" s="5"/>
-      <c r="B64" s="589"/>
-      <c r="C64" s="501"/>
-      <c r="D64" s="591"/>
-      <c r="E64" s="594"/>
+      <c r="B64" s="544"/>
+      <c r="C64" s="546"/>
+      <c r="D64" s="548"/>
+      <c r="E64" s="551"/>
       <c r="F64" s="279"/>
       <c r="G64" s="274" t="s">
         <v>166</v>
@@ -13500,7 +13582,7 @@
       <c r="J64" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="K64" s="597"/>
+      <c r="K64" s="529"/>
       <c r="L64" s="281"/>
       <c r="M64" s="277"/>
       <c r="N64" s="93"/>
@@ -13513,10 +13595,10 @@
     </row>
     <row r="65" spans="1:20" ht="15" customHeight="1">
       <c r="A65" s="5"/>
-      <c r="B65" s="589"/>
-      <c r="C65" s="501"/>
-      <c r="D65" s="591"/>
-      <c r="E65" s="594"/>
+      <c r="B65" s="544"/>
+      <c r="C65" s="546"/>
+      <c r="D65" s="548"/>
+      <c r="E65" s="551"/>
       <c r="F65" s="279"/>
       <c r="G65" s="274" t="s">
         <v>166</v>
@@ -13528,7 +13610,7 @@
       <c r="J65" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="K65" s="597"/>
+      <c r="K65" s="529"/>
       <c r="L65" s="281"/>
       <c r="M65" s="277"/>
       <c r="N65" s="93"/>
@@ -13541,10 +13623,10 @@
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1">
       <c r="A66" s="5"/>
-      <c r="B66" s="590"/>
-      <c r="C66" s="502"/>
-      <c r="D66" s="592"/>
-      <c r="E66" s="595"/>
+      <c r="B66" s="545"/>
+      <c r="C66" s="547"/>
+      <c r="D66" s="549"/>
+      <c r="E66" s="552"/>
       <c r="F66" s="283"/>
       <c r="G66" s="284"/>
       <c r="H66" s="285" t="s">
@@ -13554,7 +13636,7 @@
       <c r="J66" s="287" t="s">
         <v>293</v>
       </c>
-      <c r="K66" s="598"/>
+      <c r="K66" s="554"/>
       <c r="L66" s="288"/>
       <c r="M66" s="289"/>
       <c r="N66" s="290"/>
@@ -13580,11 +13662,11 @@
       <c r="B68" s="292" t="s">
         <v>265</v>
       </c>
-      <c r="C68" s="611">
+      <c r="C68" s="518">
         <v>12</v>
       </c>
-      <c r="D68" s="503"/>
-      <c r="E68" s="506" t="s">
+      <c r="D68" s="522"/>
+      <c r="E68" s="525" t="s">
         <v>297</v>
       </c>
       <c r="F68" s="293" t="s">
@@ -13598,7 +13680,7 @@
       <c r="J68" s="297" t="s">
         <v>291</v>
       </c>
-      <c r="K68" s="522" t="s">
+      <c r="K68" s="528" t="s">
         <v>297</v>
       </c>
       <c r="L68" s="298"/>
@@ -13613,12 +13695,12 @@
     </row>
     <row r="69" spans="1:20" ht="15" customHeight="1">
       <c r="A69" s="5"/>
-      <c r="B69" s="538" t="s">
+      <c r="B69" s="531" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="612"/>
-      <c r="D69" s="504"/>
-      <c r="E69" s="507"/>
+      <c r="C69" s="519"/>
+      <c r="D69" s="523"/>
+      <c r="E69" s="526"/>
       <c r="F69" s="302" t="s">
         <v>299</v>
       </c>
@@ -13632,7 +13714,7 @@
       <c r="J69" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="K69" s="597"/>
+      <c r="K69" s="529"/>
       <c r="L69" s="303"/>
       <c r="M69" s="93"/>
       <c r="N69" s="93"/>
@@ -13645,10 +13727,10 @@
     </row>
     <row r="70" spans="1:20" ht="15" customHeight="1">
       <c r="A70" s="5"/>
-      <c r="B70" s="540"/>
-      <c r="C70" s="612"/>
-      <c r="D70" s="504"/>
-      <c r="E70" s="507"/>
+      <c r="B70" s="532"/>
+      <c r="C70" s="519"/>
+      <c r="D70" s="523"/>
+      <c r="E70" s="526"/>
       <c r="F70" s="302"/>
       <c r="G70" s="305" t="s">
         <v>166</v>
@@ -13660,7 +13742,7 @@
       <c r="J70" s="306" t="s">
         <v>293</v>
       </c>
-      <c r="K70" s="597"/>
+      <c r="K70" s="529"/>
       <c r="L70" s="303"/>
       <c r="M70" s="307"/>
       <c r="N70" s="307"/>
@@ -13674,9 +13756,9 @@
     <row r="71" spans="1:20" ht="15" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="613"/>
-      <c r="D71" s="504"/>
-      <c r="E71" s="507"/>
+      <c r="C71" s="520"/>
+      <c r="D71" s="523"/>
+      <c r="E71" s="526"/>
       <c r="F71" s="308" t="s">
         <v>302</v>
       </c>
@@ -13684,7 +13766,7 @@
       <c r="H71" s="88"/>
       <c r="I71" s="89"/>
       <c r="J71" s="280"/>
-      <c r="K71" s="597"/>
+      <c r="K71" s="529"/>
       <c r="L71" s="309"/>
       <c r="M71" s="93"/>
       <c r="N71" s="93"/>
@@ -13698,9 +13780,9 @@
     <row r="72" spans="1:20" ht="15" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="614"/>
-      <c r="D72" s="505"/>
-      <c r="E72" s="508"/>
+      <c r="C72" s="521"/>
+      <c r="D72" s="524"/>
+      <c r="E72" s="527"/>
       <c r="F72" s="310" t="s">
         <v>303</v>
       </c>
@@ -13708,7 +13790,7 @@
       <c r="H72" s="101"/>
       <c r="I72" s="102"/>
       <c r="J72" s="311"/>
-      <c r="K72" s="615"/>
+      <c r="K72" s="530"/>
       <c r="L72" s="312"/>
       <c r="M72" s="313"/>
       <c r="N72" s="313"/>
@@ -13731,14 +13813,14 @@
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
       <c r="A74" s="5"/>
-      <c r="B74" s="538" t="s">
+      <c r="B74" s="531" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="607">
+      <c r="C74" s="533">
         <v>13</v>
       </c>
-      <c r="D74" s="608"/>
-      <c r="E74" s="506" t="s">
+      <c r="D74" s="535"/>
+      <c r="E74" s="525" t="s">
         <v>304</v>
       </c>
       <c r="F74" s="315" t="s">
@@ -13754,7 +13836,7 @@
       <c r="J74" s="297" t="s">
         <v>306</v>
       </c>
-      <c r="K74" s="522" t="s">
+      <c r="K74" s="528" t="s">
         <v>304</v>
       </c>
       <c r="L74" s="318"/>
@@ -13769,10 +13851,10 @@
     </row>
     <row r="75" spans="1:20" ht="15" customHeight="1">
       <c r="A75" s="5"/>
-      <c r="B75" s="540"/>
-      <c r="C75" s="601"/>
-      <c r="D75" s="609"/>
-      <c r="E75" s="610"/>
+      <c r="B75" s="532"/>
+      <c r="C75" s="534"/>
+      <c r="D75" s="536"/>
+      <c r="E75" s="537"/>
       <c r="F75" s="321" t="s">
         <v>307</v>
       </c>
@@ -13786,7 +13868,7 @@
       <c r="J75" s="311" t="s">
         <v>306</v>
       </c>
-      <c r="K75" s="524"/>
+      <c r="K75" s="538"/>
       <c r="L75" s="325"/>
       <c r="M75" s="326"/>
       <c r="N75" s="327"/>
@@ -13865,7 +13947,7 @@
       <c r="C79" s="3"/>
       <c r="E79" s="340"/>
       <c r="J79" s="243"/>
-      <c r="K79" s="616" t="s">
+      <c r="K79" s="495" t="s">
         <v>257</v>
       </c>
       <c r="L79" s="93" t="s">
@@ -13890,7 +13972,7 @@
       <c r="C80" s="3"/>
       <c r="E80" s="340"/>
       <c r="J80" s="243"/>
-      <c r="K80" s="617"/>
+      <c r="K80" s="496"/>
       <c r="L80" s="93" t="s">
         <v>314</v>
       </c>
@@ -13913,7 +13995,7 @@
       <c r="C81" s="3"/>
       <c r="E81" s="340"/>
       <c r="J81" s="243"/>
-      <c r="K81" s="618"/>
+      <c r="K81" s="497"/>
       <c r="L81" s="106" t="s">
         <v>316</v>
       </c>
@@ -13943,7 +14025,7 @@
       <c r="C83" s="3"/>
       <c r="E83" s="340"/>
       <c r="J83" s="243"/>
-      <c r="K83" s="619" t="s">
+      <c r="K83" s="498" t="s">
         <v>259</v>
       </c>
       <c r="L83" s="86" t="s">
@@ -13966,7 +14048,7 @@
       <c r="C84" s="3"/>
       <c r="E84" s="340"/>
       <c r="J84" s="243"/>
-      <c r="K84" s="620"/>
+      <c r="K84" s="499"/>
       <c r="L84" s="93" t="s">
         <v>319</v>
       </c>
@@ -13989,7 +14071,7 @@
       <c r="C85" s="3"/>
       <c r="E85" s="340"/>
       <c r="J85" s="243"/>
-      <c r="K85" s="620"/>
+      <c r="K85" s="499"/>
       <c r="L85" s="93" t="s">
         <v>321</v>
       </c>
@@ -14010,7 +14092,7 @@
       <c r="C86" s="3"/>
       <c r="E86" s="340"/>
       <c r="J86" s="243"/>
-      <c r="K86" s="620"/>
+      <c r="K86" s="499"/>
       <c r="L86" s="93" t="s">
         <v>322</v>
       </c>
@@ -14033,7 +14115,7 @@
       <c r="C87" s="3"/>
       <c r="E87" s="340"/>
       <c r="J87" s="243"/>
-      <c r="K87" s="621"/>
+      <c r="K87" s="500"/>
       <c r="L87" s="106" t="s">
         <v>324</v>
       </c>
@@ -14266,14 +14348,14 @@
     <row r="99" spans="1:29" ht="15" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="622" t="s">
+      <c r="C99" s="501" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="623"/>
-      <c r="E99" s="623"/>
-      <c r="F99" s="623"/>
-      <c r="G99" s="623"/>
-      <c r="H99" s="624"/>
+      <c r="D99" s="502"/>
+      <c r="E99" s="502"/>
+      <c r="F99" s="502"/>
+      <c r="G99" s="502"/>
+      <c r="H99" s="503"/>
       <c r="I99" s="349"/>
       <c r="J99" s="243"/>
       <c r="K99" s="5"/>
@@ -14311,14 +14393,14 @@
     </row>
     <row r="101" spans="1:29">
       <c r="A101" s="5"/>
-      <c r="B101" s="625" t="s">
+      <c r="B101" s="504" t="s">
         <v>265</v>
       </c>
-      <c r="C101" s="628">
+      <c r="C101" s="507">
         <v>15</v>
       </c>
-      <c r="D101" s="631"/>
-      <c r="E101" s="634" t="s">
+      <c r="D101" s="510"/>
+      <c r="E101" s="513" t="s">
         <v>336</v>
       </c>
       <c r="F101" s="350" t="s">
@@ -14345,10 +14427,10 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102" s="5"/>
-      <c r="B102" s="626"/>
-      <c r="C102" s="629"/>
-      <c r="D102" s="632"/>
-      <c r="E102" s="635"/>
+      <c r="B102" s="505"/>
+      <c r="C102" s="508"/>
+      <c r="D102" s="511"/>
+      <c r="E102" s="514"/>
       <c r="F102" s="355" t="s">
         <v>339</v>
       </c>
@@ -14372,10 +14454,10 @@
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:29">
-      <c r="B103" s="626"/>
-      <c r="C103" s="629"/>
-      <c r="D103" s="632"/>
-      <c r="E103" s="635"/>
+      <c r="B103" s="505"/>
+      <c r="C103" s="508"/>
+      <c r="D103" s="511"/>
+      <c r="E103" s="514"/>
       <c r="F103" s="355" t="s">
         <v>340</v>
       </c>
@@ -14400,10 +14482,10 @@
     </row>
     <row r="104" spans="1:29">
       <c r="A104" s="5"/>
-      <c r="B104" s="626"/>
-      <c r="C104" s="629"/>
-      <c r="D104" s="632"/>
-      <c r="E104" s="635"/>
+      <c r="B104" s="505"/>
+      <c r="C104" s="508"/>
+      <c r="D104" s="511"/>
+      <c r="E104" s="514"/>
       <c r="F104" s="355" t="s">
         <v>341</v>
       </c>
@@ -14437,10 +14519,10 @@
     </row>
     <row r="105" spans="1:29">
       <c r="A105" s="5"/>
-      <c r="B105" s="626"/>
-      <c r="C105" s="629"/>
-      <c r="D105" s="632"/>
-      <c r="E105" s="636"/>
+      <c r="B105" s="505"/>
+      <c r="C105" s="508"/>
+      <c r="D105" s="511"/>
+      <c r="E105" s="515"/>
       <c r="F105" s="355" t="s">
         <v>304</v>
       </c>
@@ -14474,10 +14556,10 @@
     </row>
     <row r="106" spans="1:29">
       <c r="A106" s="5"/>
-      <c r="B106" s="626"/>
-      <c r="C106" s="629"/>
-      <c r="D106" s="632"/>
-      <c r="E106" s="637" t="s">
+      <c r="B106" s="505"/>
+      <c r="C106" s="508"/>
+      <c r="D106" s="511"/>
+      <c r="E106" s="516" t="s">
         <v>342</v>
       </c>
       <c r="F106" s="355" t="s">
@@ -14513,10 +14595,10 @@
     </row>
     <row r="107" spans="1:29" ht="15" customHeight="1">
       <c r="A107" s="5"/>
-      <c r="B107" s="626"/>
-      <c r="C107" s="629"/>
-      <c r="D107" s="632"/>
-      <c r="E107" s="635"/>
+      <c r="B107" s="505"/>
+      <c r="C107" s="508"/>
+      <c r="D107" s="511"/>
+      <c r="E107" s="514"/>
       <c r="F107" s="355" t="s">
         <v>344</v>
       </c>
@@ -14549,10 +14631,10 @@
       <c r="AC107" s="5"/>
     </row>
     <row r="108" spans="1:29">
-      <c r="B108" s="626"/>
-      <c r="C108" s="629"/>
-      <c r="D108" s="632"/>
-      <c r="E108" s="635"/>
+      <c r="B108" s="505"/>
+      <c r="C108" s="508"/>
+      <c r="D108" s="511"/>
+      <c r="E108" s="514"/>
       <c r="F108" s="355" t="s">
         <v>347</v>
       </c>
@@ -14566,10 +14648,10 @@
       </c>
     </row>
     <row r="109" spans="1:29">
-      <c r="B109" s="626"/>
-      <c r="C109" s="629"/>
-      <c r="D109" s="632"/>
-      <c r="E109" s="636"/>
+      <c r="B109" s="505"/>
+      <c r="C109" s="508"/>
+      <c r="D109" s="511"/>
+      <c r="E109" s="515"/>
       <c r="F109" s="355" t="s">
         <v>349</v>
       </c>
@@ -14583,10 +14665,10 @@
       </c>
     </row>
     <row r="110" spans="1:29">
-      <c r="B110" s="626"/>
-      <c r="C110" s="629"/>
-      <c r="D110" s="632"/>
-      <c r="E110" s="638" t="s">
+      <c r="B110" s="505"/>
+      <c r="C110" s="508"/>
+      <c r="D110" s="511"/>
+      <c r="E110" s="517" t="s">
         <v>130</v>
       </c>
       <c r="F110" s="355" t="s">
@@ -14602,10 +14684,10 @@
       </c>
     </row>
     <row r="111" spans="1:29">
-      <c r="B111" s="626"/>
-      <c r="C111" s="629"/>
-      <c r="D111" s="632"/>
-      <c r="E111" s="638"/>
+      <c r="B111" s="505"/>
+      <c r="C111" s="508"/>
+      <c r="D111" s="511"/>
+      <c r="E111" s="517"/>
       <c r="F111" s="355" t="s">
         <v>131</v>
       </c>
@@ -14617,9 +14699,9 @@
       </c>
     </row>
     <row r="112" spans="1:29">
-      <c r="B112" s="627"/>
-      <c r="C112" s="630"/>
-      <c r="D112" s="633"/>
+      <c r="B112" s="506"/>
+      <c r="C112" s="509"/>
+      <c r="D112" s="512"/>
       <c r="E112" s="360" t="s">
         <v>352</v>
       </c>
@@ -14635,72 +14717,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="K83:K87"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="B101:B112"/>
-    <mergeCell ref="C101:C112"/>
-    <mergeCell ref="D101:D112"/>
-    <mergeCell ref="E101:E105"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="K68:K72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="K60:K66"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C39"/>
-    <mergeCell ref="D28:D39"/>
-    <mergeCell ref="E28:E39"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L22"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="E3:J3"/>
@@ -14717,6 +14733,72 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="J14:J17"/>
     <mergeCell ref="K14:K19"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C39"/>
+    <mergeCell ref="D28:D39"/>
+    <mergeCell ref="E28:E39"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="K60:K66"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="K68:K72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="K83:K87"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="B101:B112"/>
+    <mergeCell ref="C101:C112"/>
+    <mergeCell ref="D101:D112"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E110:E111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14779,24 +14861,24 @@
       <c r="B3" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="653" t="s">
+      <c r="C3" s="656" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="653"/>
-      <c r="E3" s="653"/>
-      <c r="F3" s="653"/>
-      <c r="G3" s="653"/>
-      <c r="H3" s="653"/>
-      <c r="I3" s="653"/>
+      <c r="D3" s="656"/>
+      <c r="E3" s="656"/>
+      <c r="F3" s="656"/>
+      <c r="G3" s="656"/>
+      <c r="H3" s="656"/>
+      <c r="I3" s="656"/>
       <c r="J3" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="K3" s="639" t="s">
+      <c r="K3" s="642" t="s">
         <v>357</v>
       </c>
-      <c r="L3" s="640"/>
-      <c r="M3" s="640"/>
-      <c r="N3" s="640"/>
+      <c r="L3" s="643"/>
+      <c r="M3" s="643"/>
+      <c r="N3" s="643"/>
       <c r="O3" s="372" t="s">
         <v>355</v>
       </c>
@@ -14901,7 +14983,7 @@
       <c r="P5" s="375"/>
     </row>
     <row r="6" spans="1:16" ht="28.9">
-      <c r="A6" s="641" t="s">
+      <c r="A6" s="644" t="s">
         <v>370</v>
       </c>
       <c r="B6" s="376" t="s">
@@ -14949,7 +15031,7 @@
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="642"/>
+      <c r="A7" s="645"/>
       <c r="B7" s="40" t="s">
         <v>358</v>
       </c>
@@ -14995,7 +15077,7 @@
       <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="642"/>
+      <c r="A8" s="645"/>
       <c r="B8" s="377" t="s">
         <v>359</v>
       </c>
@@ -15041,7 +15123,7 @@
       <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="642"/>
+      <c r="A9" s="645"/>
       <c r="B9" s="378" t="s">
         <v>360</v>
       </c>
@@ -15087,7 +15169,7 @@
       <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="642"/>
+      <c r="A10" s="645"/>
       <c r="B10" s="40" t="s">
         <v>361</v>
       </c>
@@ -15133,7 +15215,7 @@
       <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="642"/>
+      <c r="A11" s="645"/>
       <c r="B11" s="40" t="s">
         <v>362</v>
       </c>
@@ -15179,7 +15261,7 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="642"/>
+      <c r="A12" s="645"/>
       <c r="B12" s="40" t="s">
         <v>363</v>
       </c>
@@ -15225,7 +15307,7 @@
       <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="643"/>
+      <c r="A13" s="646"/>
       <c r="B13" s="379" t="s">
         <v>357</v>
       </c>
@@ -15570,13 +15652,13 @@
       <c r="C20" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D20" s="644" t="s">
+      <c r="D20" s="647" t="s">
         <v>374</v>
       </c>
-      <c r="E20" s="644"/>
-      <c r="F20" s="644"/>
-      <c r="G20" s="644"/>
-      <c r="H20" s="644"/>
+      <c r="E20" s="647"/>
+      <c r="F20" s="647"/>
+      <c r="G20" s="647"/>
+      <c r="H20" s="647"/>
       <c r="I20" s="27" t="s">
         <v>355</v>
       </c>
@@ -15612,11 +15694,11 @@
       <c r="C21" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="644"/>
-      <c r="E21" s="644"/>
-      <c r="F21" s="644"/>
-      <c r="G21" s="644"/>
-      <c r="H21" s="644"/>
+      <c r="D21" s="647"/>
+      <c r="E21" s="647"/>
+      <c r="F21" s="647"/>
+      <c r="G21" s="647"/>
+      <c r="H21" s="647"/>
       <c r="I21" s="27" t="s">
         <v>355</v>
       </c>
@@ -15705,22 +15787,22 @@
       <c r="B7" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="645" t="s">
+      <c r="C7" s="648" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="645"/>
-      <c r="E7" s="645"/>
-      <c r="F7" s="645"/>
-      <c r="G7" s="645"/>
-      <c r="H7" s="645"/>
-      <c r="I7" s="645"/>
-      <c r="J7" s="646" t="s">
+      <c r="D7" s="648"/>
+      <c r="E7" s="648"/>
+      <c r="F7" s="648"/>
+      <c r="G7" s="648"/>
+      <c r="H7" s="648"/>
+      <c r="I7" s="648"/>
+      <c r="J7" s="649" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="647"/>
-      <c r="L7" s="647"/>
-      <c r="M7" s="647"/>
-      <c r="N7" s="647"/>
+      <c r="K7" s="650"/>
+      <c r="L7" s="650"/>
+      <c r="M7" s="650"/>
+      <c r="N7" s="650"/>
     </row>
     <row r="8" spans="2:14" ht="43.15">
       <c r="B8" s="28" t="s">
@@ -16385,13 +16467,13 @@
       <c r="C24" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D24" s="644" t="s">
+      <c r="D24" s="647" t="s">
         <v>374</v>
       </c>
-      <c r="E24" s="644"/>
-      <c r="F24" s="644"/>
-      <c r="G24" s="644"/>
-      <c r="H24" s="644"/>
+      <c r="E24" s="647"/>
+      <c r="F24" s="647"/>
+      <c r="G24" s="647"/>
+      <c r="H24" s="647"/>
       <c r="I24" s="27" t="s">
         <v>355</v>
       </c>
@@ -16418,11 +16500,11 @@
       <c r="C25" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D25" s="644"/>
-      <c r="E25" s="644"/>
-      <c r="F25" s="644"/>
-      <c r="G25" s="644"/>
-      <c r="H25" s="644"/>
+      <c r="D25" s="647"/>
+      <c r="E25" s="647"/>
+      <c r="F25" s="647"/>
+      <c r="G25" s="647"/>
+      <c r="H25" s="647"/>
       <c r="I25" s="27" t="s">
         <v>355</v>
       </c>
@@ -16535,10 +16617,10 @@
       <c r="G5" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="I5" s="648" t="s">
+      <c r="I5" s="651" t="s">
         <v>389</v>
       </c>
-      <c r="J5" s="648"/>
+      <c r="J5" s="651"/>
       <c r="K5" s="24" t="s">
         <v>390</v>
       </c>
@@ -16546,10 +16628,10 @@
       <c r="M5" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="N5" s="649"/>
-      <c r="O5" s="650"/>
-      <c r="P5" s="650"/>
-      <c r="Q5" s="651"/>
+      <c r="N5" s="652"/>
+      <c r="O5" s="653"/>
+      <c r="P5" s="653"/>
+      <c r="Q5" s="654"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
@@ -16622,7 +16704,7 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="652" t="s">
+      <c r="B8" s="655" t="s">
         <v>397</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -16655,7 +16737,7 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="652"/>
+      <c r="B9" s="655"/>
       <c r="C9" s="6" t="s">
         <v>400</v>
       </c>
@@ -16858,7 +16940,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="652" t="s">
+      <c r="B17" s="655" t="s">
         <v>415</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -16890,7 +16972,7 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="652"/>
+      <c r="B18" s="655"/>
       <c r="C18" s="6" t="s">
         <v>402</v>
       </c>
@@ -16905,7 +16987,7 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="652"/>
+      <c r="B19" s="655"/>
       <c r="C19" s="6" t="s">
         <v>419</v>
       </c>
@@ -17197,15 +17279,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
@@ -17217,14 +17290,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D915514-1548-428E-9157-E4F8E6CE2C95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37270761-2FFD-43DD-83AB-841833AA2884}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A78421-6406-417C-9056-E08C2C33B562}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A78421-6406-417C-9056-E08C2C33B562}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37270761-2FFD-43DD-83AB-841833AA2884}"/>
 </file>